--- a/medicine/Mort/Peine_de_mort_au_Laos/Peine_de_mort_au_Laos.xlsx
+++ b/medicine/Mort/Peine_de_mort_au_Laos/Peine_de_mort_au_Laos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La peine de mort au Laos est une sanction légale. Les crimes passibles d'exécution comprennent le meurtre ; le terrorisme ; le trafic de drogue ; la possession de drogue (en) ; le vol avec usage de la force ; l'enlèvement ; le fait de gêner un officier dans l'exercice de ses fonctions publiques et causer sa mort ou lui causer une incapacité physique ; le fait de perturber l'industrie, le commerce, l'agriculture ou d'autres activités économiques dans le but de saper l'économie nationale ; la trahison et l'espionnage. Les exécutions sont effectuées par arme à feu sur un peloton d'exécution. En mars 2009, le gouvernement du Laos a signalé à Amnesty International qu'à la fin de l'année 2008, il y avait 85 personnes présentes dans le couloir de la mort. La dernière exécution connue au Laos a eu lieu en 1989[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La peine de mort au Laos est une sanction légale. Les crimes passibles d'exécution comprennent le meurtre ; le terrorisme ; le trafic de drogue ; la possession de drogue (en) ; le vol avec usage de la force ; l'enlèvement ; le fait de gêner un officier dans l'exercice de ses fonctions publiques et causer sa mort ou lui causer une incapacité physique ; le fait de perturber l'industrie, le commerce, l'agriculture ou d'autres activités économiques dans le but de saper l'économie nationale ; la trahison et l'espionnage. Les exécutions sont effectuées par arme à feu sur un peloton d'exécution. En mars 2009, le gouvernement du Laos a signalé à Amnesty International qu'à la fin de l'année 2008, il y avait 85 personnes présentes dans le couloir de la mort. La dernière exécution connue au Laos a eu lieu en 1989.
 </t>
         </is>
       </c>
